--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3566.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3566.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.2303277529626</v>
+        <v>0.7090943455696106</v>
       </c>
       <c r="B1">
-        <v>1.758426986816365</v>
+        <v>1.975718021392822</v>
       </c>
       <c r="C1">
-        <v>3.315841311626868</v>
+        <v>2.503110408782959</v>
       </c>
       <c r="D1">
-        <v>4.847235073136304</v>
+        <v>0.8493666052818298</v>
       </c>
       <c r="E1">
-        <v>1.043056310366795</v>
+        <v>0.958307147026062</v>
       </c>
     </row>
   </sheetData>
